--- a/tables/tableS7.xlsx
+++ b/tables/tableS7.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +393,16 @@
           <t>mollusc_n</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>all_species</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>all_species_n</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -418,6 +428,12 @@
       <c r="G2">
         <v>34</v>
       </c>
+      <c r="H2">
+        <v>31.14</v>
+      </c>
+      <c r="I2">
+        <v>228</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -443,6 +459,12 @@
       <c r="G3">
         <v>24</v>
       </c>
+      <c r="H3">
+        <v>68.04000000000001</v>
+      </c>
+      <c r="I3">
+        <v>341</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +490,12 @@
       <c r="G4">
         <v>24</v>
       </c>
+      <c r="H4">
+        <v>44.77</v>
+      </c>
+      <c r="I4">
+        <v>344</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -493,6 +521,12 @@
       <c r="G5">
         <v>53</v>
       </c>
+      <c r="H5">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="I5">
+        <v>612</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -518,6 +552,12 @@
       <c r="G6">
         <v>37</v>
       </c>
+      <c r="H6">
+        <v>32.92</v>
+      </c>
+      <c r="I6">
+        <v>240</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -543,6 +583,12 @@
       <c r="G7">
         <v>45</v>
       </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>430</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -567,6 +613,12 @@
       </c>
       <c r="G8">
         <v>34</v>
+      </c>
+      <c r="H8">
+        <v>55.66</v>
+      </c>
+      <c r="I8">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
